--- a/perfilado.xlsx
+++ b/perfilado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardpuig/iwall_audience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{593C7012-E466-EE45-AF85-F87A048130C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7495478-BF24-D541-B4C8-32AD4A081AFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="460" windowWidth="30840" windowHeight="20180" xr2:uid="{37831016-55D9-9F40-A1DA-1A7285B37262}"/>
+    <workbookView xWindow="2200" yWindow="460" windowWidth="30840" windowHeight="20180" xr2:uid="{37831016-55D9-9F40-A1DA-1A7285B37262}"/>
   </bookViews>
   <sheets>
     <sheet name="perfilado140121" sheetId="2" r:id="rId1"/>
@@ -23,8 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">perfilado140121!$A$1:$O$72</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'PROGRAMMATIC SCREENS'!$A$1:$I$60</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1643,7 +1642,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1964,7 +1963,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2035,16 +2034,16 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
       <c r="C2" s="7">
-        <v>38400000</v>
+        <v>4930619</v>
       </c>
       <c r="E2" s="7">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="F2" s="7">
         <v>0.45</v>
@@ -2079,16 +2078,16 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>328</v>
+        <v>24</v>
       </c>
       <c r="C3" s="7">
-        <v>36000000</v>
+        <v>2000000</v>
       </c>
       <c r="E3" s="7">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="F3" s="7">
         <v>0.45</v>
@@ -2123,28 +2122,28 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>324</v>
+        <v>29</v>
       </c>
       <c r="C4" s="7">
-        <v>20000000</v>
+        <v>5000000</v>
       </c>
       <c r="E4" s="7">
-        <v>90000</v>
+        <v>4000</v>
       </c>
       <c r="F4" s="7">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="G4" s="7">
-        <v>0.55000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="H4" s="17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I4" s="17">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J4" s="17">
         <v>0.4</v>
@@ -2167,16 +2166,16 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C5" s="7">
-        <v>30000000</v>
+        <v>3552814</v>
       </c>
       <c r="E5" s="7">
-        <v>90000</v>
+        <v>7000</v>
       </c>
       <c r="F5" s="7">
         <v>0.45</v>
@@ -2211,16 +2210,16 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>327</v>
+        <v>33</v>
       </c>
       <c r="C6" s="7">
-        <v>30000000</v>
+        <v>5381246</v>
       </c>
       <c r="E6" s="7">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="F6" s="7">
         <v>0.45</v>
@@ -2255,60 +2254,60 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="C7" s="7">
-        <v>40000000</v>
+        <v>7000000</v>
       </c>
       <c r="E7" s="7">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="F7" s="7">
-        <v>0.45</v>
+        <v>0.37</v>
       </c>
       <c r="G7" s="7">
-        <v>0.55000000000000004</v>
+        <v>0.63</v>
       </c>
       <c r="H7" s="17">
         <v>0</v>
       </c>
       <c r="I7" s="17">
-        <v>0.4</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="J7" s="17">
-        <v>0.4</v>
+        <v>0.505</v>
       </c>
       <c r="K7" s="17">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
       <c r="L7" s="17">
-        <v>0.4</v>
+        <v>0.03</v>
       </c>
       <c r="M7" s="17">
-        <v>0.4</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="N7" s="17">
-        <v>0.2</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="O7" s="17">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>282</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7">
-        <v>40000000</v>
+        <v>5305792</v>
       </c>
       <c r="E8" s="7">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="F8" s="7">
         <v>0.45</v>
@@ -2329,30 +2328,30 @@
         <v>0.2</v>
       </c>
       <c r="L8" s="17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M8" s="17">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N8" s="17">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="O8" s="17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>285</v>
+        <v>335</v>
       </c>
       <c r="C9" s="7">
-        <v>40000000</v>
+        <v>15000000</v>
       </c>
       <c r="E9" s="7">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="F9" s="7">
         <v>0.38</v>
@@ -2373,13 +2372,13 @@
         <v>0.2</v>
       </c>
       <c r="L9" s="17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M9" s="17">
         <v>0.5</v>
       </c>
       <c r="N9" s="17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O9" s="17">
         <v>0</v>
@@ -2387,16 +2386,16 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>323</v>
+        <v>41</v>
       </c>
       <c r="C10" s="7">
-        <v>24000000</v>
+        <v>3700000</v>
       </c>
       <c r="E10" s="7">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="F10" s="7">
         <v>0.45</v>
@@ -2431,16 +2430,16 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C11" s="7">
         <v>15000000</v>
       </c>
       <c r="E11" s="7">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="F11" s="7">
         <v>0.38</v>
@@ -2461,13 +2460,13 @@
         <v>0.2</v>
       </c>
       <c r="L11" s="17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M11" s="17">
         <v>0.5</v>
       </c>
       <c r="N11" s="17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O11" s="17">
         <v>0</v>
@@ -2475,43 +2474,43 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>337</v>
+        <v>46</v>
       </c>
       <c r="C12" s="7">
-        <v>15000000</v>
+        <v>1642827</v>
       </c>
       <c r="E12" s="7">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F12" s="7">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="G12" s="7">
-        <v>0.63</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H12" s="18">
         <v>0</v>
       </c>
       <c r="I12" s="18">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J12" s="18">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="K12" s="18">
+        <v>0.35</v>
+      </c>
+      <c r="L12" s="18">
         <v>0.2</v>
       </c>
-      <c r="L12" s="18">
-        <v>0</v>
-      </c>
       <c r="M12" s="18">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="N12" s="18">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="O12" s="18">
         <v>0</v>
@@ -2519,16 +2518,16 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>116</v>
+        <v>321</v>
       </c>
       <c r="C13" s="7">
-        <v>15000000</v>
+        <v>12000000</v>
       </c>
       <c r="E13" s="7">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="F13" s="7">
         <v>0.45</v>
@@ -2563,16 +2562,16 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C14" s="7">
-        <v>15000000</v>
+        <v>1690000</v>
       </c>
       <c r="E14" s="7">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="F14" s="7">
         <v>0.45</v>
@@ -2607,60 +2606,60 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>336</v>
+        <v>199</v>
       </c>
       <c r="C15" s="7">
-        <v>15000000</v>
+        <v>4400000</v>
       </c>
       <c r="E15" s="7">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="F15" s="14">
-        <v>0.38</v>
+        <v>0.75</v>
       </c>
       <c r="G15" s="14">
-        <v>0.63</v>
+        <v>0.25</v>
       </c>
       <c r="H15" s="18">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I15" s="18">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="J15" s="18">
-        <v>0.4</v>
+        <v>0.61</v>
       </c>
       <c r="K15" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="L15" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="M15" s="18">
         <v>0.2</v>
       </c>
-      <c r="L15" s="26">
-        <v>0</v>
-      </c>
-      <c r="M15" s="26" t="s">
-        <v>353</v>
-      </c>
-      <c r="N15" s="26" t="s">
-        <v>353</v>
+      <c r="N15" s="18">
+        <v>0.78</v>
       </c>
       <c r="O15" s="18">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>321</v>
+        <v>57</v>
       </c>
       <c r="C16" s="7">
-        <v>12000000</v>
+        <v>3000000</v>
       </c>
       <c r="E16" s="7">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="F16" s="7">
         <v>0.45</v>
@@ -2695,16 +2694,16 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C17" s="7">
-        <v>12000000</v>
+        <v>1700000</v>
       </c>
       <c r="E17" s="7">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="F17" s="7">
         <v>0.45</v>
@@ -2716,39 +2715,39 @@
         <v>0</v>
       </c>
       <c r="I17" s="17">
-        <v>0.46500000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="J17" s="17">
-        <v>0.40500000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="K17" s="17">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="L17" s="17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="M17" s="17">
-        <v>0.56000000000000005</v>
+        <v>0.4</v>
       </c>
       <c r="N17" s="17">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="O17" s="17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>315</v>
+        <v>65</v>
       </c>
       <c r="C18" s="7">
-        <v>12000000</v>
+        <v>1700000</v>
       </c>
       <c r="E18" s="7">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="F18" s="7">
         <v>0.45</v>
@@ -2783,16 +2782,16 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>317</v>
+        <v>69</v>
       </c>
       <c r="C19" s="7">
-        <v>12000000</v>
+        <v>4000000</v>
       </c>
       <c r="E19" s="7">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="F19" s="7">
         <v>0.45</v>
@@ -2827,78 +2826,78 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C20" s="7">
-        <v>10000000</v>
+        <v>4000000</v>
       </c>
       <c r="E20" s="7">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="F20" s="7">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="G20" s="7">
-        <v>0.56000000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H20" s="17">
         <v>0</v>
       </c>
       <c r="I20" s="17">
-        <v>0.52</v>
+        <v>0.4</v>
       </c>
       <c r="J20" s="17">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="K20" s="17">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="L20" s="17">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M20" s="17">
-        <v>0.31</v>
+        <v>0.4</v>
       </c>
       <c r="N20" s="17">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="O20" s="17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="C21" s="7">
-        <v>10000000</v>
+        <v>5300000</v>
       </c>
       <c r="E21" s="7">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F21" s="7">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="G21" s="7">
-        <v>0.55000000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H21" s="17">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I21" s="17">
-        <v>0.4</v>
+        <v>0.16</v>
       </c>
       <c r="J21" s="17">
-        <v>0.4</v>
+        <v>0.19</v>
       </c>
       <c r="K21" s="17">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="L21" s="17">
         <v>0.1</v>
@@ -2915,22 +2914,22 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>334</v>
+        <v>84</v>
       </c>
       <c r="C22" s="7">
-        <v>10000000</v>
+        <v>3000000</v>
       </c>
       <c r="E22" s="7">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="F22" s="7">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="G22" s="7">
-        <v>0.63</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H22" s="17">
         <v>0</v>
@@ -2948,57 +2947,57 @@
         <v>0.1</v>
       </c>
       <c r="M22" s="17">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N22" s="17">
         <v>0.4</v>
       </c>
       <c r="O22" s="17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>332</v>
+        <v>88</v>
       </c>
       <c r="C23" s="7">
-        <v>10000000</v>
+        <v>4800000</v>
       </c>
       <c r="E23" s="7">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="F23" s="14">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="G23" s="14">
-        <v>0.63</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H23" s="18">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I23" s="18">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="J23" s="18">
-        <v>0.4</v>
+        <v>0.31</v>
       </c>
       <c r="K23" s="18">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L23" s="18">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="M23" s="18">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="N23" s="18">
-        <v>0.2</v>
+        <v>0.49</v>
       </c>
       <c r="O23" s="18">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -3047,16 +3046,16 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>112</v>
+        <v>328</v>
       </c>
       <c r="C25" s="7">
-        <v>9000000</v>
+        <v>36000000</v>
       </c>
       <c r="E25" s="7">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="F25" s="7">
         <v>0.45</v>
@@ -3091,16 +3090,16 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>314</v>
+        <v>183</v>
       </c>
       <c r="C26" s="7">
-        <v>9000000</v>
+        <v>4500000</v>
       </c>
       <c r="E26" s="7">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="F26" s="7">
         <v>0.45</v>
@@ -3135,16 +3134,16 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>318</v>
+        <v>101</v>
       </c>
       <c r="C27" s="7">
-        <v>9000000</v>
+        <v>12000000</v>
       </c>
       <c r="E27" s="7">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="F27" s="7">
         <v>0.45</v>
@@ -3156,39 +3155,39 @@
         <v>0</v>
       </c>
       <c r="I27" s="17">
-        <v>0.4</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="J27" s="17">
-        <v>0.4</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="K27" s="17">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="L27" s="18">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M27" s="18">
-        <v>0.4</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N27" s="18">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="O27" s="18">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>154</v>
+        <v>322</v>
       </c>
       <c r="C28" s="7">
-        <v>9000000</v>
+        <v>38400000</v>
       </c>
       <c r="E28" s="7">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="F28" s="7">
         <v>0.45</v>
@@ -3223,16 +3222,16 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="C29" s="7">
         <v>9000000</v>
       </c>
       <c r="E29" s="7">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="F29" s="7">
         <v>0.45</v>
@@ -3244,39 +3243,39 @@
         <v>0</v>
       </c>
       <c r="I29" s="17">
-        <v>0.56000000000000005</v>
+        <v>0.4</v>
       </c>
       <c r="J29" s="17">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="K29" s="17">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="L29" s="17">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="M29" s="17">
-        <v>0.53500000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="N29" s="17">
-        <v>0.34499999999999997</v>
+        <v>0.4</v>
       </c>
       <c r="O29" s="17">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>352</v>
+        <v>116</v>
       </c>
       <c r="C30" s="7">
-        <v>9000000</v>
+        <v>15000000</v>
       </c>
       <c r="E30" s="7">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="F30" s="7">
         <v>0.45</v>
@@ -3285,42 +3284,42 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="H30" s="17">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="I30" s="17">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="J30" s="17">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="K30" s="17">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="L30" s="17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M30" s="17">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N30" s="17">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="O30" s="17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>296</v>
+        <v>120</v>
       </c>
       <c r="C31" s="7">
-        <v>8000000</v>
+        <v>7000000</v>
       </c>
       <c r="E31" s="7">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="F31" s="7">
         <v>0.45</v>
@@ -3355,16 +3354,16 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C32" s="7">
-        <v>8000000</v>
+        <v>40000000</v>
       </c>
       <c r="E32" s="7">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="F32" s="7">
         <v>0.45</v>
@@ -3399,60 +3398,60 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>303</v>
+        <v>125</v>
       </c>
       <c r="C33" s="7">
-        <v>7000000</v>
+        <v>3500000</v>
       </c>
       <c r="E33" s="7">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="F33" s="7">
-        <v>0.37</v>
+        <v>0.45</v>
       </c>
       <c r="G33" s="7">
-        <v>0.63</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H33" s="17">
         <v>0</v>
       </c>
       <c r="I33" s="17">
-        <v>0.40500000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="J33" s="17">
-        <v>0.505</v>
+        <v>0.4</v>
       </c>
       <c r="K33" s="17">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
       <c r="L33" s="17">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="M33" s="17">
-        <v>0.41499999999999998</v>
+        <v>0.4</v>
       </c>
       <c r="N33" s="17">
-        <v>0.48499999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="O33" s="17">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C34" s="7">
-        <v>7000000</v>
+        <v>15000000</v>
       </c>
       <c r="E34" s="7">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="F34" s="7">
         <v>0.45</v>
@@ -3487,16 +3486,16 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C35" s="7">
-        <v>7000000</v>
+        <v>9000000</v>
       </c>
       <c r="E35" s="7">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="F35" s="7">
         <v>0.45</v>
@@ -3531,16 +3530,16 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>195</v>
+        <v>315</v>
       </c>
       <c r="C36" s="7">
-        <v>6200000</v>
+        <v>12000000</v>
       </c>
       <c r="E36" s="7">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="F36" s="7">
         <v>0.45</v>
@@ -3575,16 +3574,16 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="C37" s="7">
-        <v>6000000</v>
+        <v>12000000</v>
       </c>
       <c r="E37" s="7">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="F37" s="7">
         <v>0.45</v>
@@ -3605,30 +3604,30 @@
         <v>0.2</v>
       </c>
       <c r="L37" s="17">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="M37" s="17">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N37" s="17">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O37" s="17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C38" s="7">
-        <v>6000000</v>
+        <v>9000000</v>
       </c>
       <c r="E38" s="7">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="F38" s="7">
         <v>0.45</v>
@@ -3663,16 +3662,16 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>145</v>
+        <v>313</v>
       </c>
       <c r="C39" s="7">
-        <v>5700000</v>
+        <v>7000000</v>
       </c>
       <c r="E39" s="7">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="F39" s="7">
         <v>0.45</v>
@@ -3684,39 +3683,39 @@
         <v>0</v>
       </c>
       <c r="I39" s="17">
-        <v>0.27</v>
+        <v>0.4</v>
       </c>
       <c r="J39" s="17">
-        <v>0.65</v>
+        <v>0.4</v>
       </c>
       <c r="K39" s="17">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
       <c r="L39" s="17">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="M39" s="17">
-        <v>0.54500000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="N39" s="17">
-        <v>0.35499999999999998</v>
+        <v>0.4</v>
       </c>
       <c r="O39" s="17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>33</v>
+        <v>296</v>
       </c>
       <c r="C40" s="7">
-        <v>5381246</v>
+        <v>8000000</v>
       </c>
       <c r="E40" s="7">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="F40" s="7">
         <v>0.45</v>
@@ -3751,16 +3750,16 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C41" s="7">
-        <v>5305792</v>
+        <v>3100000</v>
       </c>
       <c r="E41" s="7">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="F41" s="7">
         <v>0.45</v>
@@ -3795,43 +3794,43 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="C42" s="7">
-        <v>5300000</v>
+        <v>3588896</v>
       </c>
       <c r="E42" s="7">
         <v>5000</v>
       </c>
       <c r="F42" s="14">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="G42" s="14">
-        <v>0.56000000000000005</v>
+        <v>0.6</v>
       </c>
       <c r="H42" s="18">
-        <v>0.28999999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="I42" s="18">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="J42" s="18">
-        <v>0.19</v>
+        <v>0.45</v>
       </c>
       <c r="K42" s="18">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="L42" s="18">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="M42" s="18">
         <v>0.4</v>
       </c>
       <c r="N42" s="18">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="O42" s="18">
         <v>0.1</v>
@@ -3839,60 +3838,60 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="C43" s="7">
-        <v>5000000</v>
+        <v>4400000</v>
       </c>
       <c r="E43" s="7">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="F43" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="G43" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="H43" s="17">
+        <v>0</v>
+      </c>
+      <c r="I43" s="17">
         <v>0.35</v>
       </c>
-      <c r="G43" s="7">
-        <v>0.65</v>
-      </c>
-      <c r="H43" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="I43" s="17">
-        <v>0.3</v>
-      </c>
       <c r="J43" s="17">
-        <v>0.4</v>
+        <v>0.48</v>
       </c>
       <c r="K43" s="17">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="L43" s="17">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M43" s="17">
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
       <c r="N43" s="17">
-        <v>0.4</v>
+        <v>0.67</v>
       </c>
       <c r="O43" s="17">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>202</v>
+        <v>142</v>
       </c>
       <c r="C44" s="7">
-        <v>5000000</v>
+        <v>1900000</v>
       </c>
       <c r="E44" s="7">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="F44" s="7">
         <v>0.45</v>
@@ -3904,39 +3903,39 @@
         <v>0</v>
       </c>
       <c r="I44" s="17">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="J44" s="17">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
       <c r="K44" s="17">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="L44" s="17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="M44" s="17">
-        <v>0.56000000000000005</v>
+        <v>0.4</v>
       </c>
       <c r="N44" s="17">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="O44" s="17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="C45" s="7">
-        <v>4930619</v>
+        <v>5700000</v>
       </c>
       <c r="E45" s="7">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="F45" s="7">
         <v>0.45</v>
@@ -3948,89 +3947,89 @@
         <v>0</v>
       </c>
       <c r="I45" s="18">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="J45" s="18">
-        <v>0.4</v>
+        <v>0.65</v>
       </c>
       <c r="K45" s="18">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
       <c r="L45" s="18">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="M45" s="18">
-        <v>0.4</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="N45" s="18">
-        <v>0.4</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="O45" s="18">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>88</v>
+        <v>282</v>
       </c>
       <c r="C46" s="7">
-        <v>4800000</v>
+        <v>40000000</v>
       </c>
       <c r="E46" s="7">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="F46" s="7">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="G46" s="7">
-        <v>0.56999999999999995</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H46" s="17">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I46" s="17">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="J46" s="17">
-        <v>0.31</v>
+        <v>0.4</v>
       </c>
       <c r="K46" s="17">
-        <v>0.14000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="L46" s="17">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M46" s="17">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="N46" s="17">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="O46" s="17">
-        <v>0.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="C47" s="7">
-        <v>4500000</v>
+        <v>40000000</v>
       </c>
       <c r="E47" s="7">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="F47" s="7">
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
       <c r="G47" s="7">
-        <v>0.55000000000000004</v>
+        <v>0.63</v>
       </c>
       <c r="H47" s="17">
         <v>0</v>
@@ -4045,101 +4044,101 @@
         <v>0.2</v>
       </c>
       <c r="L47" s="17">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M47" s="17">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="N47" s="17">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O47" s="17">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="C48" s="7">
         <v>4400000</v>
       </c>
       <c r="E48" s="7">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="F48" s="7">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="G48" s="7">
-        <v>0.25</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H48" s="17">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I48" s="17">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="J48" s="17">
-        <v>0.61</v>
+        <v>0.4</v>
       </c>
       <c r="K48" s="17">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="L48" s="17">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="M48" s="17">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="N48" s="17">
-        <v>0.78</v>
+        <v>0.4</v>
       </c>
       <c r="O48" s="17">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>135</v>
+        <v>287</v>
       </c>
       <c r="C49" s="7">
-        <v>4400000</v>
+        <v>6000000</v>
       </c>
       <c r="E49" s="7">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="F49" s="7">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="G49" s="7">
-        <v>0.52</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H49" s="17">
         <v>0</v>
       </c>
       <c r="I49" s="17">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="J49" s="17">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="K49" s="17">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="L49" s="17">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="M49" s="17">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="N49" s="17">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="O49" s="17">
         <v>0</v>
@@ -4147,16 +4146,16 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>151</v>
+        <v>352</v>
       </c>
       <c r="C50" s="7">
-        <v>4400000</v>
+        <v>9000000</v>
       </c>
       <c r="E50" s="7">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="F50" s="7">
         <v>0.45</v>
@@ -4165,42 +4164,42 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="H50" s="17">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="I50" s="17">
-        <v>0.4</v>
+        <v>0.21</v>
       </c>
       <c r="J50" s="17">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="K50" s="17">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="L50" s="17">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M50" s="17">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="N50" s="17">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O50" s="17">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="C51" s="7">
-        <v>4300000</v>
+        <v>9000000</v>
       </c>
       <c r="E51" s="7">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="F51" s="7">
         <v>0.45</v>
@@ -4235,16 +4234,16 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>69</v>
+        <v>323</v>
       </c>
       <c r="C52" s="7">
-        <v>4000000</v>
+        <v>24000000</v>
       </c>
       <c r="E52" s="7">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="F52" s="7">
         <v>0.45</v>
@@ -4279,16 +4278,16 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C53" s="7">
-        <v>4000000</v>
+        <v>9000000</v>
       </c>
       <c r="E53" s="7">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="F53" s="7">
         <v>0.45</v>
@@ -4300,83 +4299,83 @@
         <v>0</v>
       </c>
       <c r="I53" s="17">
-        <v>0.4</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J53" s="17">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="K53" s="17">
-        <v>0.2</v>
+        <v>0.03</v>
       </c>
       <c r="L53" s="17">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="M53" s="17">
-        <v>0.4</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="N53" s="17">
-        <v>0.4</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="O53" s="17">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C54" s="7">
-        <v>4000000</v>
+        <v>10000000</v>
       </c>
       <c r="E54" s="7">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="F54" s="7">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="G54" s="7">
-        <v>0.55000000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H54" s="17">
         <v>0</v>
       </c>
       <c r="I54" s="17">
-        <v>0.4</v>
+        <v>0.52</v>
       </c>
       <c r="J54" s="17">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="K54" s="17">
+        <v>0.06</v>
+      </c>
+      <c r="L54" s="17">
         <v>0.2</v>
       </c>
-      <c r="L54" s="17">
-        <v>0.1</v>
-      </c>
       <c r="M54" s="17">
-        <v>0.4</v>
+        <v>0.31</v>
       </c>
       <c r="N54" s="17">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O54" s="17">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="C55" s="7">
-        <v>3700000</v>
+        <v>10000000</v>
       </c>
       <c r="E55" s="7">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F55" s="7">
         <v>0.45</v>
@@ -4411,43 +4410,43 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="C56" s="7">
-        <v>3588896</v>
+        <v>4000000</v>
       </c>
       <c r="E56" s="7">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="F56" s="7">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="G56" s="7">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H56" s="17">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="I56" s="17">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J56" s="17">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="K56" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="L56" s="17">
         <v>0.1</v>
       </c>
-      <c r="L56" s="17">
-        <v>0.05</v>
-      </c>
       <c r="M56" s="17">
         <v>0.4</v>
       </c>
       <c r="N56" s="17">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="O56" s="17">
         <v>0.1</v>
@@ -4455,22 +4454,22 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="C57" s="7">
-        <v>3552814</v>
+        <v>10000000</v>
       </c>
       <c r="E57" s="7">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="F57" s="7">
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
       <c r="G57" s="7">
-        <v>0.55000000000000004</v>
+        <v>0.63</v>
       </c>
       <c r="H57" s="17">
         <v>0</v>
@@ -4488,33 +4487,33 @@
         <v>0.1</v>
       </c>
       <c r="M57" s="17">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="N57" s="17">
         <v>0.4</v>
       </c>
       <c r="O57" s="17">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>125</v>
+        <v>332</v>
       </c>
       <c r="C58" s="7">
-        <v>3500000</v>
+        <v>10000000</v>
       </c>
       <c r="E58" s="7">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F58" s="7">
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
       <c r="G58" s="7">
-        <v>0.55000000000000004</v>
+        <v>0.63</v>
       </c>
       <c r="H58" s="17">
         <v>0</v>
@@ -4529,13 +4528,13 @@
         <v>0.2</v>
       </c>
       <c r="L58" s="17">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="M58" s="17">
         <v>0.4</v>
       </c>
       <c r="N58" s="17">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="O58" s="17">
         <v>0.1</v>
@@ -4543,13 +4542,13 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>206</v>
+        <v>333</v>
       </c>
       <c r="C59" s="7">
-        <v>3500000</v>
+        <v>8000000</v>
       </c>
       <c r="E59" s="7">
         <v>8000</v>
@@ -4564,36 +4563,36 @@
         <v>0</v>
       </c>
       <c r="I59" s="17">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="J59" s="17">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
       <c r="K59" s="17">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="L59" s="17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.4</v>
       </c>
       <c r="M59" s="17">
-        <v>0.56000000000000005</v>
+        <v>0.4</v>
       </c>
       <c r="N59" s="17">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="O59" s="17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C60" s="7">
-        <v>3100000</v>
+        <v>1700000</v>
       </c>
       <c r="E60" s="7">
         <v>5000</v>
@@ -4631,16 +4630,16 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>57</v>
+        <v>324</v>
       </c>
       <c r="C61" s="7">
-        <v>3000000</v>
+        <v>20000000</v>
       </c>
       <c r="E61" s="7">
-        <v>4000</v>
+        <v>90000</v>
       </c>
       <c r="F61" s="7">
         <v>0.45</v>
@@ -4675,22 +4674,22 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>84</v>
+        <v>336</v>
       </c>
       <c r="C62" s="7">
-        <v>3000000</v>
+        <v>15000000</v>
       </c>
       <c r="E62" s="7">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="F62" s="7">
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
       <c r="G62" s="7">
-        <v>0.55000000000000004</v>
+        <v>0.63</v>
       </c>
       <c r="H62" s="17">
         <v>0</v>
@@ -4704,31 +4703,31 @@
       <c r="K62" s="17">
         <v>0.2</v>
       </c>
-      <c r="L62" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="M62" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="N62" s="17">
-        <v>0.4</v>
+      <c r="L62" s="26">
+        <v>0</v>
+      </c>
+      <c r="M62" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="N62" s="26" t="s">
+        <v>353</v>
       </c>
       <c r="O62" s="17">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="C63" s="7">
-        <v>3000000</v>
+        <v>6000000</v>
       </c>
       <c r="E63" s="7">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="F63" s="7">
         <v>0.45</v>
@@ -4749,30 +4748,30 @@
         <v>0.2</v>
       </c>
       <c r="L63" s="17">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="M63" s="17">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N63" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="O63" s="17">
         <v>0.1</v>
-      </c>
-      <c r="O63" s="17">
-        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C64" s="7">
-        <v>3000000</v>
+        <v>30000000</v>
       </c>
       <c r="E64" s="7">
-        <v>3000</v>
+        <v>90000</v>
       </c>
       <c r="F64" s="7">
         <v>0.45</v>
@@ -4793,30 +4792,30 @@
         <v>0.2</v>
       </c>
       <c r="L64" s="17">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="M64" s="17">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N64" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="O64" s="17">
         <v>0.1</v>
-      </c>
-      <c r="O64" s="17">
-        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>330</v>
+        <v>191</v>
       </c>
       <c r="C65" s="7">
-        <v>3000000</v>
+        <v>4300000</v>
       </c>
       <c r="E65" s="7">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="F65" s="7">
         <v>0.45</v>
@@ -4837,30 +4836,30 @@
         <v>0.2</v>
       </c>
       <c r="L65" s="17">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="M65" s="17">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N65" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="O65" s="17">
         <v>0.1</v>
-      </c>
-      <c r="O65" s="17">
-        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="C66" s="7">
-        <v>3000000</v>
+        <v>30000000</v>
       </c>
       <c r="E66" s="7">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="F66" s="7">
         <v>0.45</v>
@@ -4881,30 +4880,30 @@
         <v>0.2</v>
       </c>
       <c r="L66" s="17">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="M66" s="17">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N66" s="17">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="O66" s="17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>24</v>
+        <v>290</v>
       </c>
       <c r="C67" s="7">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="E67" s="7">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="F67" s="7">
         <v>0.45</v>
@@ -4925,30 +4924,30 @@
         <v>0.2</v>
       </c>
       <c r="L67" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="M67" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="N67" s="17">
         <v>0.1</v>
       </c>
-      <c r="M67" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="N67" s="17">
-        <v>0.4</v>
-      </c>
       <c r="O67" s="17">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>142</v>
+        <v>195</v>
       </c>
       <c r="C68" s="7">
-        <v>1900000</v>
+        <v>6200000</v>
       </c>
       <c r="E68" s="7">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="F68" s="7">
         <v>0.45</v>
@@ -4983,16 +4982,16 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>61</v>
+        <v>329</v>
       </c>
       <c r="C69" s="7">
-        <v>1700000</v>
+        <v>3000000</v>
       </c>
       <c r="E69" s="7">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="F69" s="7">
         <v>0.45</v>
@@ -5013,30 +5012,30 @@
         <v>0.2</v>
       </c>
       <c r="L69" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="M69" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="N69" s="17">
         <v>0.1</v>
       </c>
-      <c r="M69" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="N69" s="17">
-        <v>0.4</v>
-      </c>
       <c r="O69" s="17">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>65</v>
+        <v>330</v>
       </c>
       <c r="C70" s="7">
-        <v>1700000</v>
+        <v>3000000</v>
       </c>
       <c r="E70" s="7">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="F70" s="7">
         <v>0.45</v>
@@ -5057,30 +5056,30 @@
         <v>0.2</v>
       </c>
       <c r="L70" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="M70" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="N70" s="17">
         <v>0.1</v>
       </c>
-      <c r="M70" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="N70" s="17">
-        <v>0.4</v>
-      </c>
       <c r="O70" s="17">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>187</v>
+        <v>293</v>
       </c>
       <c r="C71" s="7">
-        <v>1700000</v>
+        <v>3000000</v>
       </c>
       <c r="E71" s="7">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="F71" s="7">
         <v>0.45</v>
@@ -5101,30 +5100,30 @@
         <v>0.2</v>
       </c>
       <c r="L71" s="18">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="M71" s="18">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="N71" s="18">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="O71" s="18">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>52</v>
+        <v>202</v>
       </c>
       <c r="C72" s="7">
-        <v>1690000</v>
+        <v>5000000</v>
       </c>
       <c r="E72" s="7">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="F72" s="7">
         <v>0.45</v>
@@ -5136,66 +5135,66 @@
         <v>0</v>
       </c>
       <c r="I72" s="17">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="J72" s="17">
-        <v>0.4</v>
+        <v>0.51</v>
       </c>
       <c r="K72" s="17">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="L72" s="17">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M72" s="17">
-        <v>0.4</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N72" s="17">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="O72" s="17">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>46</v>
+        <v>206</v>
       </c>
       <c r="C73" s="7">
-        <v>1642827</v>
+        <v>3500000</v>
       </c>
       <c r="E73" s="7">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="F73" s="7">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="G73" s="7">
-        <v>0.57999999999999996</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H73" s="17">
         <v>0</v>
       </c>
       <c r="I73" s="17">
-        <v>0.2</v>
+        <v>0.41</v>
       </c>
       <c r="J73" s="17">
-        <v>0.45</v>
+        <v>0.51</v>
       </c>
       <c r="K73" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="L73" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M73" s="17">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N73" s="17">
         <v>0.35</v>
-      </c>
-      <c r="L73" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="M73" s="17">
-        <v>0.7</v>
-      </c>
-      <c r="N73" s="17">
-        <v>0.1</v>
       </c>
       <c r="O73" s="17">
         <v>0</v>
@@ -5204,7 +5203,7 @@
   </sheetData>
   <autoFilter ref="A1:O72" xr:uid="{7804972C-0DB8-C04E-ADB6-3C9811C99728}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O73">
-      <sortCondition descending="1" ref="C1:C73"/>
+      <sortCondition ref="B1:B73"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/perfilado.xlsx
+++ b/perfilado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardpuig/iwall_audience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7495478-BF24-D541-B4C8-32AD4A081AFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B340F022-4205-1645-90FE-2A2A9EBBCD69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="460" windowWidth="30840" windowHeight="20180" xr2:uid="{37831016-55D9-9F40-A1DA-1A7285B37262}"/>
+    <workbookView xWindow="8260" yWindow="3000" windowWidth="44680" windowHeight="20180" xr2:uid="{37831016-55D9-9F40-A1DA-1A7285B37262}"/>
   </bookViews>
   <sheets>
     <sheet name="perfilado140121" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">perfilado140121!$A$1:$O$72</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'PROGRAMMATIC SCREENS'!$A$1:$I$60</definedName>
   </definedNames>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1962,8 +1962,8 @@
   <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A73"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:O73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3938,10 +3938,10 @@
         <v>8000</v>
       </c>
       <c r="F45" s="7">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="G45" s="7">
-        <v>0.55000000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H45" s="18">
         <v>0</v>
@@ -5126,10 +5126,10 @@
         <v>6000</v>
       </c>
       <c r="F72" s="7">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="G72" s="7">
-        <v>0.55000000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="H72" s="17">
         <v>0</v>
